--- a/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,08; 31,08</t>
+          <t>30,08; 31,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,48; 31,5</t>
+          <t>30,51; 31,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,91; 30,81</t>
+          <t>29,98; 30,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 31,82</t>
+          <t>30,93; 31,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 30,96</t>
+          <t>29,8; 30,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,31; 31,41</t>
+          <t>30,25; 31,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,01; 30,88</t>
+          <t>30,0; 30,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,68; 32,33</t>
+          <t>31,65; 32,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,11; 30,9</t>
+          <t>30,12; 30,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 31,32</t>
+          <t>30,56; 31,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,11; 30,73</t>
+          <t>30,11; 30,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,39; 31,96</t>
+          <t>31,42; 31,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,93; 31,15</t>
+          <t>29,92; 31,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,59; 31,54</t>
+          <t>30,54; 31,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,91; 30,86</t>
+          <t>29,92; 30,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,27; 31,24</t>
+          <t>30,29; 31,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 30,96</t>
+          <t>29,99; 30,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,62; 30,84</t>
+          <t>29,6; 30,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,92; 30,75</t>
+          <t>29,93; 30,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 31,31</t>
+          <t>30,56; 31,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,15; 30,93</t>
+          <t>30,15; 30,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,36; 31,13</t>
+          <t>30,32; 31,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,07; 30,68</t>
+          <t>30,05; 30,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,54; 31,16</t>
+          <t>30,51; 31,17</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 30,2</t>
+          <t>29,32; 30,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,44; 31,17</t>
+          <t>30,46; 31,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 29,67</t>
+          <t>28,74; 29,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 33,9</t>
+          <t>30,39; 34,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,62; 30,4</t>
+          <t>28,62; 30,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 31,33</t>
+          <t>30,28; 31,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 29,45</t>
+          <t>27,61; 29,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>29,93; 31,12</t>
+          <t>29,99; 31,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 30,11</t>
+          <t>29,29; 30,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,53; 31,12</t>
+          <t>30,51; 31,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,66; 29,48</t>
+          <t>28,68; 29,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,4; 33,75</t>
+          <t>30,39; 33,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,27; 29,86</t>
+          <t>29,25; 29,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,7; 30,33</t>
+          <t>29,69; 30,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 29,75</t>
+          <t>29,22; 29,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,09; 30,73</t>
+          <t>30,08; 30,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,8; 29,64</t>
+          <t>28,82; 29,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 30,17</t>
+          <t>29,36; 30,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 29,84</t>
+          <t>29,21; 29,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 30,92</t>
+          <t>30,27; 30,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,17; 29,68</t>
+          <t>29,2; 29,69</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,68; 30,18</t>
+          <t>29,67; 30,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,32; 29,74</t>
+          <t>29,27; 29,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,28; 30,73</t>
+          <t>30,25; 30,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28,91; 30,14</t>
+          <t>28,97; 30,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,71; 30,57</t>
+          <t>29,69; 30,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,57; 29,41</t>
+          <t>28,59; 29,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,41; 29,53</t>
+          <t>28,41; 29,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,94; 28,94</t>
+          <t>27,94; 28,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,08; 29,85</t>
+          <t>29,11; 29,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>28,41; 29,18</t>
+          <t>28,46; 29,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,95; 31,07</t>
+          <t>28,96; 31,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,44; 29,21</t>
+          <t>28,51; 29,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 30,03</t>
+          <t>29,46; 30,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,62; 29,2</t>
+          <t>28,65; 29,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,93; 30,56</t>
+          <t>28,95; 30,39</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>31,23; 32,08</t>
+          <t>31,24; 32,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,11; 32,06</t>
+          <t>31,09; 32,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,19; 31,14</t>
+          <t>30,16; 31,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,37; 33,55</t>
+          <t>32,33; 33,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,85; 29,5</t>
+          <t>28,83; 29,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,79; 30,37</t>
+          <t>29,8; 30,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,97; 29,59</t>
+          <t>28,97; 29,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>29,45; 30,26</t>
+          <t>29,53; 30,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,38; 29,95</t>
+          <t>29,37; 29,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 30,61</t>
+          <t>30,12; 30,65</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,3; 29,81</t>
+          <t>29,31; 29,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,22; 30,94</t>
+          <t>30,32; 30,96</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,88; 30,23</t>
+          <t>29,86; 30,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1574,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,52; 29,82</t>
+          <t>29,51; 29,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,57; 31,77</t>
+          <t>30,58; 31,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,13; 29,53</t>
+          <t>29,13; 29,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,87; 30,2</t>
+          <t>29,86; 30,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,28; 29,61</t>
+          <t>29,25; 29,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,24; 30,81</t>
+          <t>30,22; 30,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,55; 29,82</t>
+          <t>29,55; 29,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,17; 30,42</t>
+          <t>30,18; 30,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,43; 29,67</t>
+          <t>29,44; 29,67</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,47; 31,28</t>
+          <t>30,46; 31,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
